--- a/Export/시험결과집계_result.xlsx
+++ b/Export/시험결과집계_result.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
-  <workbookPr defaultThemeVersion="202300"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rpasj\Documents\RPA교육\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\공부\UiPath\RPA수업\Export\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C06B686-F794-4B8E-9AAC-714A39E67EAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38510" yWindow="-1540" windowWidth="38620" windowHeight="21100" activeTab="2" xr2:uid="{A8ED2583-5D70-4C74-9287-68803395DD4A}"/>
+    <workbookView xWindow="-38505" yWindow="-1545" windowWidth="38625" windowHeight="21105" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Input!$A$1:$E$16</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="50">
   <si>
     <t>이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -221,13 +220,31 @@
   <si>
     <t>* 과목별 응시인원 대비 합격률을 표시합니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>국어</t>
+  </si>
+  <si>
+    <t>불합격</t>
+  </si>
+  <si>
+    <t>합격</t>
+  </si>
+  <si>
+    <t>영어</t>
+  </si>
+  <si>
+    <t>수학</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.0%"/>
+  </numFmts>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -269,6 +286,12 @@
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -329,7 +352,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -345,15 +368,17 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -687,7 +712,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD3EAFA5-79A6-4842-B842-3D6225442EAB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -912,14 +937,14 @@
       <c r="E16" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E16" xr:uid="{DD3EAFA5-79A6-4842-B842-3D6225442EAB}"/>
+  <autoFilter ref="A1:E16"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1151A4C-4D41-453E-B2D8-194CFA21D813}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -964,7 +989,7 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="5" t="s">
         <v>41</v>
       </c>
     </row>
@@ -975,7 +1000,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7338DB7B-156A-487F-939E-8ACAEFF7D5A7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -989,16 +1014,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="G1" s="6" t="s">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="G1" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="H1" s="6"/>
+      <c r="H1" s="7"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
@@ -1020,173 +1045,239 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="3"/>
+      <c r="C3" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>46</v>
+      </c>
       <c r="G3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="3"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H3" s="9">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="3"/>
+      <c r="C4" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>47</v>
+      </c>
       <c r="G4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="3"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H4" s="9">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
+      <c r="C5" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>47</v>
+      </c>
       <c r="G5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="2"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H5" s="9">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C6" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="G7" s="7" t="s">
+      <c r="C7" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G7" s="5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C8" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C9" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="3"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C10" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="3"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C11" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C12" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C13" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C14" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C15" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C16" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
+      <c r="C17" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="5" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1197,5 +1288,6 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>